--- a/Plotting/result_data.xlsx
+++ b/Plotting/result_data.xlsx
@@ -736,7 +736,11 @@
           <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ammonia\20241014153839_minC_highCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ammonia\20241018162237_minE_refCO2tax-1\optimization_results.h5</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -819,14 +823,18 @@
       <c r="I6" t="n">
         <v>1261644506.750287</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2041889047.222214</v>
+      </c>
       <c r="K6" t="n">
         <v>4992295015.564954</v>
       </c>
       <c r="L6" t="n">
         <v>5186886175.229006</v>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>6502166550.940186</v>
+      </c>
       <c r="N6" t="n">
         <v>6170262507.668044</v>
       </c>
@@ -894,14 +902,18 @@
       <c r="I7" t="n">
         <v>255997.6039909462</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>124125.0915880971</v>
+      </c>
       <c r="K7" t="n">
         <v>2452949.984472455</v>
       </c>
       <c r="L7" t="n">
         <v>1915974.87716634</v>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1724482.547888739</v>
+      </c>
       <c r="N7" t="n">
         <v>1594548.632671142</v>
       </c>
@@ -969,14 +981,18 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="n">
         <v>149.999999999999</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>92.42396757274994</v>
+      </c>
       <c r="N8" t="n">
         <v>48.06048945668321</v>
       </c>
@@ -1044,14 +1060,18 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>149.9999999999996</v>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>59.85433281406229</v>
+      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
@@ -1119,14 +1139,18 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
       <c r="N10" t="n">
         <v>176.2361014924467</v>
       </c>
@@ -1194,14 +1218,18 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
@@ -1269,14 +1297,18 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
@@ -1344,14 +1376,18 @@
       <c r="I13" t="n">
         <v>86.00687353470641</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>92.90870326179147</v>
+      </c>
       <c r="K13" t="n">
         <v>88.66851871696758</v>
       </c>
       <c r="L13" t="n">
         <v>86.00687353470641</v>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>92.90870326179147</v>
+      </c>
       <c r="N13" t="n">
         <v>258.7060242640877</v>
       </c>
@@ -1419,14 +1455,18 @@
       <c r="I14" t="n">
         <v>80.11849629213611</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>79.29440141433896</v>
+      </c>
       <c r="K14" t="n">
         <v>79.7548015784476</v>
       </c>
       <c r="L14" t="n">
         <v>80.11849629213611</v>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>79.29440141433896</v>
+      </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
@@ -1494,14 +1534,18 @@
       <c r="I15" t="n">
         <v>1066.83959644029</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1726.610051769165</v>
+      </c>
       <c r="K15" t="n">
         <v>1999.637513243993</v>
       </c>
       <c r="L15" t="n">
         <v>2077.579978862856</v>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>2604.408616093962</v>
+      </c>
       <c r="N15" t="n">
         <v>1693.191985990748</v>
       </c>
@@ -1572,7 +1616,9 @@
       <c r="L16" t="n">
         <v>938.5648204766566</v>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1176.564238239343</v>
+      </c>
       <c r="N16" t="n">
         <v>786.4730529937831</v>
       </c>
@@ -1634,14 +1680,18 @@
       <c r="I17" t="n">
         <v>0.2164701538905346</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.1049594889126476</v>
+      </c>
       <c r="K17" t="n">
         <v>0.982516215842528</v>
       </c>
       <c r="L17" t="n">
         <v>0.7674336606450133</v>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>0.6907324152402224</v>
+      </c>
       <c r="N17" t="n">
         <v>0.4375627394711379</v>
       </c>
@@ -1712,7 +1762,9 @@
       <c r="L18" t="n">
         <v>0.3466948292047328</v>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>0.3120443746585324</v>
+      </c>
       <c r="N18" t="n">
         <v>0.203244113151661</v>
       </c>
